--- a/Analisis/Posicion.xlsx
+++ b/Analisis/Posicion.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6CDBCA-A220-4650-9E5C-B1AB67FF6394}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ADB399-3748-4C1F-B5AB-BE638B3A3DB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{8735E809-75B1-4425-A957-11A2FF4D127F}"/>
+    <workbookView minimized="1" xWindow="540" yWindow="1116" windowWidth="14820" windowHeight="7176" xr2:uid="{8735E809-75B1-4425-A957-11A2FF4D127F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +110,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,7 +179,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -217,15 +216,19 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -542,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E0E64F-942D-4DF3-9CFE-7C85B980273C}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,10 +684,10 @@
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="33"/>
+      <c r="T2" s="30"/>
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -735,35 +738,35 @@
         <v>1</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="35">
-        <f t="shared" ref="O2:O16" si="3">L3/L2-1</f>
+      <c r="O3" s="32">
+        <f t="shared" ref="O3:O15" si="3">L3/L2-1</f>
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P2:P16" si="4">I2/L2</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="33">
-        <f t="shared" ref="Q2:Q16" si="5">K2/L2</f>
-        <v>1</v>
-      </c>
-      <c r="R3" s="34">
-        <f t="shared" ref="R2:R15" si="6">SUM(P3:Q3)</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="35">
-        <f t="shared" ref="S2:S16" si="7">J3/J2-1</f>
+        <f t="shared" ref="P3:P15" si="4">I2/L2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="30">
+        <f t="shared" ref="Q3:Q15" si="5">K2/L2</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="31">
+        <f t="shared" ref="R3:R15" si="6">SUM(P3:Q3)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="32">
+        <f t="shared" ref="S3:S15" si="7">J3/J2-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T3" s="36">
-        <v>0</v>
-      </c>
-      <c r="U3" s="35">
-        <f t="shared" ref="U2:U15" si="8">SUMPRODUCT(P3:Q3,S3:T3)</f>
+      <c r="T3" s="33">
+        <v>0</v>
+      </c>
+      <c r="U3" s="32">
+        <f t="shared" ref="U3:U15" si="8">SUMPRODUCT(P3:Q3,S3:T3)</f>
         <v>0</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3:V17" si="9">O3/S3</f>
+        <f t="shared" ref="V3:V6" si="9">O3/S3</f>
         <v>0</v>
       </c>
     </row>
@@ -815,7 +818,7 @@
         <v>0.5</v>
       </c>
       <c r="N4" s="3"/>
-      <c r="O4" s="35">
+      <c r="O4" s="32">
         <f t="shared" si="3"/>
         <v>-0.13636363636363635</v>
       </c>
@@ -823,22 +826,22 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4" s="32">
         <f t="shared" si="7"/>
         <v>-0.13636363636363635</v>
       </c>
-      <c r="T4" s="36">
-        <v>0</v>
-      </c>
-      <c r="U4" s="35">
+      <c r="T4" s="33">
+        <v>0</v>
+      </c>
+      <c r="U4" s="32">
         <f t="shared" si="8"/>
         <v>-0.13636363636363635</v>
       </c>
@@ -895,34 +898,34 @@
         <v>0</v>
       </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="35">
+      <c r="O5" s="34">
         <f t="shared" si="3"/>
         <v>-5.2631578947368474E-2</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="8">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="35">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="36">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5" s="34">
         <f t="shared" si="7"/>
         <v>-0.10526315789473684</v>
       </c>
-      <c r="T5" s="36">
-        <v>0</v>
-      </c>
-      <c r="U5" s="35">
+      <c r="T5" s="37">
+        <v>0</v>
+      </c>
+      <c r="U5" s="34">
         <f t="shared" si="8"/>
         <v>-5.2631578947368418E-2</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="9">
         <f t="shared" si="9"/>
         <v>0.50000000000000056</v>
       </c>
@@ -975,7 +978,7 @@
         <v>1.2222222222222221</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="35">
+      <c r="O6" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -983,22 +986,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="30">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="32">
         <f t="shared" si="7"/>
         <v>0.11764705882352944</v>
       </c>
-      <c r="T6" s="36">
-        <v>0</v>
-      </c>
-      <c r="U6" s="35">
+      <c r="T6" s="33">
+        <v>0</v>
+      </c>
+      <c r="U6" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1027,7 +1030,7 @@
         <f>C7*H6</f>
         <v>5.2631578947368425</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="40">
         <f>F7*J7</f>
         <v>578.94736842105272</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>0.59313725490196068</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="35">
+      <c r="O7" s="32">
         <f t="shared" si="3"/>
         <v>0.19298245614035081</v>
       </c>
@@ -1063,22 +1066,22 @@
         <f t="shared" si="4"/>
         <v>1.2222222222222221</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="30">
         <f t="shared" si="5"/>
         <v>-0.2222222222222221</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="32">
         <f t="shared" si="7"/>
         <v>0.15789473684210531</v>
       </c>
-      <c r="T7" s="36">
-        <v>0</v>
-      </c>
-      <c r="U7" s="35">
+      <c r="T7" s="33">
+        <v>0</v>
+      </c>
+      <c r="U7" s="32">
         <f t="shared" si="8"/>
         <v>0.19298245614035092</v>
       </c>
@@ -1135,34 +1138,34 @@
         <v>0</v>
       </c>
       <c r="N8" s="9"/>
-      <c r="O8" s="35">
+      <c r="O8" s="34">
         <f t="shared" si="3"/>
         <v>8.0882352941176627E-2</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="8">
         <f t="shared" si="4"/>
         <v>0.59313725490196068</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="35">
         <f t="shared" si="5"/>
         <v>0.40686274509803927</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="36">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="34">
         <f t="shared" si="7"/>
         <v>0.13636363636363646</v>
       </c>
-      <c r="T8" s="36">
-        <v>0</v>
-      </c>
-      <c r="U8" s="35">
+      <c r="T8" s="37">
+        <v>0</v>
+      </c>
+      <c r="U8" s="34">
         <f t="shared" si="8"/>
         <v>8.0882352941176516E-2</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="9">
         <f t="shared" ref="V8:V17" si="12">O8/S8</f>
         <v>0.59313725490196145</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>0.947845804988662</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="35">
+      <c r="O9" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1223,22 +1226,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="30">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="32">
         <f t="shared" si="7"/>
         <v>-0.12</v>
       </c>
-      <c r="T9" s="36">
-        <v>0</v>
-      </c>
-      <c r="U9" s="35">
+      <c r="T9" s="33">
+        <v>0</v>
+      </c>
+      <c r="U9" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>0.47146401985111647</v>
       </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="35">
+      <c r="O10" s="32">
         <f t="shared" si="3"/>
         <v>-8.6167800453514687E-2</v>
       </c>
@@ -1303,22 +1306,22 @@
         <f t="shared" si="4"/>
         <v>0.947845804988662</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="30">
         <f t="shared" si="5"/>
         <v>5.2154195011338153E-2</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="31">
         <f t="shared" si="6"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10" s="32">
         <f t="shared" si="7"/>
         <v>-9.0909090909090939E-2</v>
       </c>
-      <c r="T10" s="36">
-        <v>0</v>
-      </c>
-      <c r="U10" s="35">
+      <c r="T10" s="33">
+        <v>0</v>
+      </c>
+      <c r="U10" s="32">
         <f t="shared" si="8"/>
         <v>-8.6167800453514756E-2</v>
       </c>
@@ -1375,34 +1378,34 @@
         <v>0</v>
       </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="35">
+      <c r="O11" s="34">
         <f t="shared" si="3"/>
         <v>-4.7146401985111552E-2</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="8">
         <f t="shared" si="4"/>
         <v>0.47146401985111647</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="35">
         <f t="shared" si="5"/>
         <v>0.52853598014888348</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="36">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S11" s="35">
+      <c r="S11" s="34">
         <f t="shared" si="7"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="T11" s="36">
-        <v>0</v>
-      </c>
-      <c r="U11" s="35">
+      <c r="T11" s="37">
+        <v>0</v>
+      </c>
+      <c r="U11" s="34">
         <f t="shared" si="8"/>
         <v>-4.7146401985111636E-2</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="9">
         <f t="shared" si="12"/>
         <v>0.47146401985111563</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>1.0885416666666661</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="35">
+      <c r="O12" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1463,22 +1466,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="30">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12" s="32">
         <f t="shared" si="7"/>
         <v>0.22222222222222232</v>
       </c>
-      <c r="T12" s="36">
-        <v>0</v>
-      </c>
-      <c r="U12" s="35">
+      <c r="T12" s="33">
+        <v>0</v>
+      </c>
+      <c r="U12" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>0.58762886597938091</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="35">
+      <c r="O13" s="32">
         <f t="shared" si="3"/>
         <v>-0.49479166666666641</v>
       </c>
@@ -1543,22 +1546,22 @@
         <f t="shared" si="4"/>
         <v>1.0885416666666661</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="30">
         <f t="shared" si="5"/>
         <v>-8.8541666666666158E-2</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="31">
         <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="32">
         <f t="shared" si="7"/>
         <v>-0.45454545454545459</v>
       </c>
-      <c r="T13" s="36">
-        <v>0</v>
-      </c>
-      <c r="U13" s="35">
+      <c r="T13" s="33">
+        <v>0</v>
+      </c>
+      <c r="U13" s="32">
         <f t="shared" si="8"/>
         <v>-0.49479166666666646</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="35">
+      <c r="O14" s="32">
         <f t="shared" si="3"/>
         <v>-0.39175257731958724</v>
       </c>
@@ -1623,22 +1626,22 @@
         <f t="shared" si="4"/>
         <v>0.58762886597938091</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="30">
         <f t="shared" si="5"/>
         <v>0.41237113402061909</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14" s="32">
         <f t="shared" si="7"/>
         <v>-0.66666666666666674</v>
       </c>
-      <c r="T14" s="36">
-        <v>0</v>
-      </c>
-      <c r="U14" s="35">
+      <c r="T14" s="33">
+        <v>0</v>
+      </c>
+      <c r="U14" s="32">
         <f t="shared" si="8"/>
         <v>-0.39175257731958729</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>3.3333333333333344</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="35">
+      <c r="O15" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1703,22 +1706,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="30">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="31">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="32">
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-      <c r="T15" s="36">
-        <v>0</v>
-      </c>
-      <c r="U15" s="35">
+      <c r="T15" s="33">
+        <v>0</v>
+      </c>
+      <c r="U15" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1747,7 +1750,7 @@
         <f>C16*H15</f>
         <v>4.2772219805712703</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="6">
         <f>F16*J16</f>
         <v>564.59330143540774</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>1.2</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="35">
+      <c r="O16" s="32">
         <f>L16/L15-1</f>
         <v>0.66666666666666741</v>
       </c>
@@ -1784,22 +1787,22 @@
         <f>I15/L15</f>
         <v>3.3333333333333344</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="30">
         <f>K15/L15</f>
         <v>-2.3333333333333344</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="31">
         <f>SUM(P16:Q16)</f>
         <v>1</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="32">
         <f>J16/J15-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="T16" s="36">
-        <v>0</v>
-      </c>
-      <c r="U16" s="35">
+      <c r="T16" s="33">
+        <v>0</v>
+      </c>
+      <c r="U16" s="32">
         <f>SUMPRODUCT(P16:Q16,S16:T16)</f>
         <v>0.66666666666666674</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="35">
+      <c r="O17" s="32">
         <f>L17/L16-1</f>
         <v>2.7999999999999994</v>
       </c>
@@ -1864,22 +1867,22 @@
         <f>I16/L16</f>
         <v>1.2</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="30">
         <f>K16/L16</f>
         <v>-0.2</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="31">
         <f>SUM(P17:Q17)</f>
         <v>1</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17" s="32">
         <f>J17/J16-1</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="T17" s="36">
-        <v>0</v>
-      </c>
-      <c r="U17" s="35">
+      <c r="T17" s="33">
+        <v>0</v>
+      </c>
+      <c r="U17" s="32">
         <f>SUMPRODUCT(P17:Q17,S17:T17)</f>
         <v>2.8000000000000003</v>
       </c>
@@ -1888,10 +1891,22 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+    </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="39" t="s">
         <v>15</v>
       </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
